--- a/result3.xlsx
+++ b/result3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sakur\source\repos\opengl_binary_tree\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6480812-11FF-450E-A409-EF07DEDDF3B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D035BBB1-6E94-46F9-963E-29FD62C069AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4BB752C9-656C-492F-A1F0-27AB8C187F65}"/>
+    <workbookView xWindow="1900" yWindow="1340" windowWidth="17120" windowHeight="9460" xr2:uid="{4BB752C9-656C-492F-A1F0-27AB8C187F65}"/>
   </bookViews>
   <sheets>
     <sheet name="result2" sheetId="1" r:id="rId1"/>
@@ -1130,7 +1130,7 @@
           <c:x val="0.16384159849099642"/>
           <c:y val="2.5065102881751206E-2"/>
           <c:w val="0.8055177329853267"/>
-          <c:h val="0.9204108523821537"/>
+          <c:h val="0.93351619856528401"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -2040,6 +2040,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="9.4371794631259512E-3"/>
+              <c:y val="0.93497886489898585"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2072,7 +2080,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -2110,7 +2118,7 @@
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
+        <c:lblOffset val="0"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
@@ -3395,16 +3403,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>41089</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>128868</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>227854</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>46691</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>128868</xdr:rowOff>
+      <xdr:colOff>177053</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>46691</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3431,16 +3439,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>565524</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>28387</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>154639</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>74706</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>494127</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>95830</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>83242</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>142149</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3767,8 +3775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{324A443A-49AD-4879-BDD8-8A6DE8EB432D}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
